--- a/Feature-Analysis/Resize Feature/s_15_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_15_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.41623842588</v>
+        <v>738157.41623842588</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.41682870372</v>
+        <v>738157.41682870372</v>
       </c>
       <c r="C3" s="0">
         <v>51.000005006790161</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.41717592592</v>
+        <v>738157.41717592592</v>
       </c>
       <c r="C4" s="0">
         <v>81.000003218650818</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.41755787039</v>
+        <v>738157.41755787039</v>
       </c>
       <c r="C5" s="0">
         <v>114.00000527501106</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.41784722218</v>
+        <v>738157.41784722218</v>
       </c>
       <c r="C6" s="0">
         <v>139.00000043213367</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.41826388892</v>
+        <v>738157.41826388892</v>
       </c>
       <c r="C7" s="0">
         <v>175.00000633299351</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.4186574074</v>
+        <v>738157.4186574074</v>
       </c>
       <c r="C8" s="0">
         <v>209.00000296533108</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.41905092588</v>
+        <v>738157.41905092588</v>
       </c>
       <c r="C9" s="0">
         <v>242.99999959766865</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.41945601848</v>
+        <v>738157.41945601848</v>
       </c>
       <c r="C10" s="0">
         <v>278.00000086426735</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.41986111109</v>
+        <v>738157.41986111109</v>
       </c>
       <c r="C11" s="0">
         <v>313.00000213086605</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.42025462957</v>
+        <v>738157.42025462957</v>
       </c>
       <c r="C12" s="0">
         <v>346.99999876320362</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.42050925922</v>
+        <v>738157.42050925922</v>
       </c>
       <c r="C13" s="0">
         <v>369.00000013411045</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.42090277781</v>
+        <v>738157.42090277781</v>
       </c>
       <c r="C14" s="0">
         <v>403.00000682473183</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.42129629629</v>
+        <v>738157.42129629629</v>
       </c>
       <c r="C15" s="0">
         <v>437.0000034570694</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.42168981477</v>
+        <v>738157.42168981477</v>
       </c>
       <c r="C16" s="0">
         <v>471.00000008940697</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.42208333337</v>
+        <v>738157.42208333337</v>
       </c>
       <c r="C17" s="0">
         <v>505.00000678002834</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.42247685185</v>
+        <v>738157.42247685185</v>
       </c>
       <c r="C18" s="0">
         <v>539.00000341236591</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.42288194445</v>
+        <v>738157.42288194445</v>
       </c>
       <c r="C19" s="0">
         <v>574.00000467896461</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.42327546293</v>
+        <v>738157.42327546293</v>
       </c>
       <c r="C20" s="0">
         <v>608.00000131130219</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.42366898153</v>
+        <v>738157.42366898153</v>
       </c>
       <c r="C21" s="0">
         <v>642.00000800192356</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.42427083338</v>
+        <v>738157.42427083338</v>
       </c>
       <c r="C22" s="0">
         <v>694.00000758469105</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.4243981482</v>
+        <v>738157.4243981482</v>
       </c>
       <c r="C23" s="0">
         <v>705.00000827014446</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.42488425924</v>
+        <v>738157.42488425924</v>
       </c>
       <c r="C24" s="0">
         <v>747.00000174343586</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.42528935184</v>
+        <v>738157.42528935184</v>
       </c>
       <c r="C25" s="0">
         <v>782.00000301003456</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.42555555562</v>
+        <v>738157.42555555562</v>
       </c>
       <c r="C26" s="0">
         <v>805.00000901520252</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.42596064811</v>
+        <v>738157.42596064811</v>
       </c>
       <c r="C27" s="0">
         <v>840.00000022351742</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.4263541667</v>
+        <v>738157.4263541667</v>
       </c>
       <c r="C28" s="0">
         <v>874.00000691413879</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.42674768518</v>
+        <v>738157.42674768518</v>
       </c>
       <c r="C29" s="0">
         <v>908.00000354647636</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.42712962965</v>
+        <v>738157.42712962965</v>
       </c>
       <c r="C30" s="0">
         <v>941.00000560283661</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.42752314813</v>
+        <v>738157.42752314813</v>
       </c>
       <c r="C31" s="0">
         <v>975.00000223517418</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.4279050926</v>
+        <v>738157.4279050926</v>
       </c>
       <c r="C32" s="0">
         <v>1008.0000042915344</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.42828703707</v>
+        <v>738157.42828703707</v>
       </c>
       <c r="C33" s="0">
         <v>1041.0000063478947</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.42866898153</v>
+        <v>738157.42866898153</v>
       </c>
       <c r="C34" s="0">
         <v>1074.0000084042549</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.42905092589</v>
+        <v>738157.42905092589</v>
       </c>
       <c r="C35" s="0">
         <v>1107.0000004023314</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.42944444448</v>
+        <v>738157.42944444448</v>
       </c>
       <c r="C36" s="0">
         <v>1141.0000070929527</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.42982638883</v>
+        <v>738157.42982638883</v>
       </c>
       <c r="C37" s="0">
         <v>1173.9999990910292</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.4302083333</v>
+        <v>738157.4302083333</v>
       </c>
       <c r="C38" s="0">
         <v>1207.0000011473894</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.43059027777</v>
+        <v>738157.43059027777</v>
       </c>
       <c r="C39" s="0">
         <v>1240.0000032037497</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.43098379625</v>
+        <v>738157.43098379625</v>
       </c>
       <c r="C40" s="0">
         <v>1273.9999998360872</v>
